--- a/Files/S&P 500 Regression Model.xlsx
+++ b/Files/S&P 500 Regression Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/ll679_cam_ac_uk/Documents/Part IB/Other/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\Desktop\Portfolio Website\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="397" documentId="13_ncr:1_{E842F3D3-82AD-4AC1-B6CB-9542EB52103F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA938CB4-31E0-49FD-8E9C-4955FDDB49A7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77646E7A-0190-42E5-B522-642B60E08948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{C7219A87-D2C8-44C5-9288-95ABA0A8E17B}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C7219A87-D2C8-44C5-9288-95ABA0A8E17B}"/>
   </bookViews>
   <sheets>
     <sheet name="Method I" sheetId="1" r:id="rId1"/>
@@ -2937,9 +2937,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2977,7 +2977,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3083,7 +3083,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3225,7 +3225,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3235,9 +3235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C1B7A6-2A9A-470B-A38B-CB081BAE5E5C}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4471,9 +4469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA985401-4C36-4C30-9789-D79CB87164A7}">
   <dimension ref="A1:G178"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6131,9 +6127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FADF2C1-7E66-4ADD-A7D9-0CF987944C5D}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
